--- a/input_test/holidays_test.xlsx
+++ b/input_test/holidays_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mattia\desktop\GIT\LoBi\bills_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\OneDrive\Desktop\GIT\LoBi\input_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1AA646-6F9E-4682-A659-BECCDA73A15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E548EC68-1D4C-4CF2-A2B0-AD5460CAE4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="2610" windowWidth="26865" windowHeight="14925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -361,9 +361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -376,104 +374,64 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>44420</v>
-      </c>
+      <c r="A2" s="2"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>44421</v>
-      </c>
+      <c r="A3" s="2"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>44422</v>
-      </c>
+      <c r="A4" s="2"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>44423</v>
-      </c>
+      <c r="A5" s="2"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>44424</v>
-      </c>
+      <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>44425</v>
-      </c>
+      <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>44426</v>
-      </c>
+      <c r="A8" s="2"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>44427</v>
-      </c>
+      <c r="A9" s="2"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>44428</v>
-      </c>
+      <c r="A10" s="2"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>44429</v>
-      </c>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>44430</v>
-      </c>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>44431</v>
-      </c>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>44432</v>
-      </c>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>44433</v>
-      </c>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>44434</v>
-      </c>
+      <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>44435</v>
-      </c>
+      <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>44436</v>
-      </c>
+      <c r="A18" s="2"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>44437</v>
-      </c>
+      <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>44553</v>
-      </c>
+      <c r="A20" s="2"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>44561</v>
-      </c>
+      <c r="A21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
